--- a/PMS/make_maps.xlsx
+++ b/PMS/make_maps.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TT_ANLAB\PMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TT_ANLAB\bemac_ocr\PMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FCEFCA-83C7-4825-920B-5F9C5484EC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FFE93B-438C-43E9-AFC8-E3F18C9C3A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>w</t>
   </si>
@@ -55,6 +55,33 @@
   </si>
   <si>
     <t>y3</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>y4</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>Y2</t>
   </si>
 </sst>
 </file>
@@ -375,23 +402,50 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
       </c>
       <c r="N1" t="s">
         <v>0</v>
